--- a/AAAGameData/DataTables/Core/EntityGroupTable.xlsx
+++ b/AAAGameData/DataTables/Core/EntityGroupTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B51F33-7F6D-4282-A40B-5FFCB9C3BC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="1215" yWindow="2370" windowWidth="16410" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,13 +112,17 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Billboard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,9 +184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,9 +224,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,7 +261,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,7 +296,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,11 +469,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -684,6 +689,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <v>60</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -692,7 +717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -706,7 +731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/AAAGameData/DataTables/Core/EntityGroupTable.xlsx
+++ b/AAAGameData/DataTables/Core/EntityGroupTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B51F33-7F6D-4282-A40B-5FFCB9C3BC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1323ABC5-ACE6-4702-A17F-74FC4EF55E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1215" yWindow="2370" windowWidth="16410" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,7 +115,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Billboard</t>
+    <t>Buliding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,6 +710,26 @@
         <v>60</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>60</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
     </row>

--- a/AAAGameData/DataTables/Core/EntityGroupTable.xlsx
+++ b/AAAGameData/DataTables/Core/EntityGroupTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1323ABC5-ACE6-4702-A17F-74FC4EF55E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F1F525-BDDD-4880-A3D7-5E28FA4087D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1215" yWindow="2370" windowWidth="16410" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,11 +115,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Buliding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy</t>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Building</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +477,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -698,7 +698,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>60</v>
@@ -718,7 +718,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>60</v>

--- a/AAAGameData/DataTables/Core/EntityGroupTable.xlsx
+++ b/AAAGameData/DataTables/Core/EntityGroupTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F1F525-BDDD-4880-A3D7-5E28FA4087D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42488EE2-6778-4C4D-A27D-3F4B23160F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="2370" windowWidth="16410" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="3420" windowWidth="16410" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -650,7 +650,7 @@
         <v>60</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
